--- a/rep_dif_examp.xlsx
+++ b/rep_dif_examp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\volume1\ido\BN-SCRIPTS\Filter_data_Use_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\volume1\ido\BN-SCRIPTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB6647-8B04-4456-BB44-481ABA5A1915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A2D09-41E8-4645-9442-BEA8DCD426B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{76682717-D6EA-44EF-BD4B-1FC7EB1EF8C9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>replicate1</t>
   </si>
@@ -101,7 +101,10 @@
     <t>ממוצע משקולל</t>
   </si>
   <si>
-    <t>מינימום</t>
+    <t>d&lt;0.3</t>
+  </si>
+  <si>
+    <t>d=&gt;0.3</t>
   </si>
 </sst>
 </file>
@@ -125,12 +128,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6161"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,13 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -176,12 +188,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6161"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -194,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,26 +515,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B8186-5620-4EA5-872B-5C7D80C20DDC}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F96"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -531,262 +554,287 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="B18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.1</v>
       </c>
-      <c r="K6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I8" s="5">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{BD2B8186-5620-4EA5-872B-5C7D80C20DDC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
